--- a/medicine/Enfance/Hervé_Gourdet/Hervé_Gourdet.xlsx
+++ b/medicine/Enfance/Hervé_Gourdet/Hervé_Gourdet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gourdet</t>
+          <t>Hervé_Gourdet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Gourdet est un illustrateur français né le 3 janvier 1967, originaire de Montcy-Notre-Dame (Ardennes). 
 Il illustre le légendaire, l'imaginaire et les Ardennes. Il est le créateur du festival de féerie le Printemps des Légendes à Monthermé en 2009 qu'il dirige jusqu'en 2012. En 2016 ce festival s’installe au lac des Vieilles Forges, près des Mazures et prend le nom de Festival des Légendes pour une seule édition.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gourdet</t>
+          <t>Hervé_Gourdet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le dessinateur et l'animateur de festival
-Ancien communiquant publicitaire[1], Hervé Gourdet s'est lancé à partir de 2003 dans l’illustration[2] avec l'envie de faire connaître sa région et de travailler dans le  légendaire[3],[4]. Il s'emploie également à diffuser et partager les légendes ardennaises par des expositions et conférences[5].
-En 2009, il crée le festival Printemps des Légendes[6] et le Centre des légendes et d'elficologie en Ardenne (CLEA), qui fonctionnera durant un an dans l'ancienne école des Hauts-Buttés, un lieu au cœur de la forêt ardennaise, sur la commune de Monthermé. Le Centre des légendes et d'Elficologie en Ardenne redevient une structure itinérante jusqu'en 2014.
-Le musicien
-Passionné de musique celtique et folk, il a créé en 2003 avec une bande d'amis Ardennais belges et français le  Bagad Arduinn [7], une troupe inter-celtique composée d'une quarantaine de musiciens (cornemuses, bombardes, percussion)[8] jouant un répertoire breton, irlandais, écossais, et quelques compositions issues du répertoire wallon. Il joue lui-même de la cornemuse irlandaise, l'uilleann pipes, depuis 2001.
-Influences et rencontres
-Hervé Gourdet rencontre Pierre Dubois, auteur qu'il admire depuis son enfance, ainsi que René Hausman, passionné lui aussi de cornemuses, et Claudine Glot, qui lui donne entre autres l'opportunité de travailler sur le projet Ardennes et Bretagne, les sœurs lointaines (réédition du livre d'Albert Moxhet). En 1994, il fait la connaissance de John Howe lors de son passage à Charleville-Mézières comme artiste invité en résidence par la Région Champagne-Ardenne.[réf. nécessaire]
+          <t>Le dessinateur et l'animateur de festival</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien communiquant publicitaire, Hervé Gourdet s'est lancé à partir de 2003 dans l’illustration avec l'envie de faire connaître sa région et de travailler dans le  légendaire,. Il s'emploie également à diffuser et partager les légendes ardennaises par des expositions et conférences.
+En 2009, il crée le festival Printemps des Légendes et le Centre des légendes et d'elficologie en Ardenne (CLEA), qui fonctionnera durant un an dans l'ancienne école des Hauts-Buttés, un lieu au cœur de la forêt ardennaise, sur la commune de Monthermé. Le Centre des légendes et d'Elficologie en Ardenne redevient une structure itinérante jusqu'en 2014.
 </t>
         </is>
       </c>
@@ -532,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gourdet</t>
+          <t>Hervé_Gourdet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +560,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le musicien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionné de musique celtique et folk, il a créé en 2003 avec une bande d'amis Ardennais belges et français le  Bagad Arduinn , une troupe inter-celtique composée d'une quarantaine de musiciens (cornemuses, bombardes, percussion) jouant un répertoire breton, irlandais, écossais, et quelques compositions issues du répertoire wallon. Il joue lui-même de la cornemuse irlandaise, l'uilleann pipes, depuis 2001.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Gourdet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gourdet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Influences et rencontres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hervé Gourdet rencontre Pierre Dubois, auteur qu'il admire depuis son enfance, ainsi que René Hausman, passionné lui aussi de cornemuses, et Claudine Glot, qui lui donne entre autres l'opportunité de travailler sur le projet Ardennes et Bretagne, les sœurs lointaines (réédition du livre d'Albert Moxhet). En 1994, il fait la connaissance de John Howe lors de son passage à Charleville-Mézières comme artiste invité en résidence par la Région Champagne-Ardenne.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Gourdet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gourdet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pique-nique au volcan, Éditions Orphie, 2003  (ISBN 2-877-63-177-X).
 Le petit guide de féerie en Ardenne, Éditions SEA, 2006  (ISBN 2-902413-51-3).
